--- a/dane/wybory_woj_proc.xlsx
+++ b/dane/wybory_woj_proc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,17 +370,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>t1_Frekwencja</t>
+          <t>t1_Liczba.wyborców.uprawnionych.do.głosowania</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>t1_Robert.BIEDROŃ</t>
+          <t>t1_Liczba.kart.ważnych</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>t1_Krzysztof.BOSAK</t>
+          <t>t1_Liczba.głosów.ważnych.oddanych.łącznie.na.wszystkich.kandydatów</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -390,60 +390,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>t1_Szymon.Franciszek.HOŁOWNIA</t>
+          <t>t1_Rafał.Kazimierz.TRZASKOWSKI</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>t1_Marek.JAKUBIAK</t>
+          <t>t2_Województwo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>t1_Władysław.Marcin.KOSINIAK.KAMYSZ</t>
+          <t>t2_Liczba.wyborców.uprawnionych.do.głosowania</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>t1_Mirosław.Mariusz.PIOTROWSKI</t>
+          <t>t2_Liczba.kart.ważnych</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>t1_Paweł.Jan.TANAJNO</t>
+          <t>t2_Liczba.głosów.ważnych.oddanych.łącznie.na.wszystkich.kandydatów</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>t1_Rafał.Kazimierz.TRZASKOWSKI</t>
+          <t>t2_Andrzej.Sebastian.DUDA</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>t1_Waldemar.Włodzimierz.WITKOWSKI</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>t1_Stanisław.Józef.ŻÓŁTEK</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>t2_Województwo</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>t2_Frekwencja</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>t2_Andrzej.Sebastian.DUDA</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>t2_Rafał.Kazimierz.TRZASKOWSKI</t>
         </is>
@@ -461,54 +436,39 @@
         </is>
       </c>
       <c r="C2">
-        <v>63.47</v>
+        <v>2254674</v>
       </c>
       <c r="D2">
-        <v>2.61</v>
+        <v>1430953</v>
       </c>
       <c r="E2">
-        <v>6.44</v>
+        <v>1426393</v>
       </c>
       <c r="F2">
-        <v>38.21</v>
+        <v>545001</v>
       </c>
       <c r="G2">
-        <v>14.09</v>
-      </c>
-      <c r="H2">
-        <v>0.16</v>
+        <v>512357</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>dolnośląskie</t>
+        </is>
       </c>
       <c r="I2">
-        <v>1.91</v>
+        <v>2240376</v>
       </c>
       <c r="J2">
-        <v>0.09</v>
+        <v>1500893</v>
       </c>
       <c r="K2">
-        <v>0.17</v>
+        <v>1487940</v>
       </c>
       <c r="L2">
-        <v>35.92</v>
+        <v>663831</v>
       </c>
       <c r="M2">
-        <v>0.15</v>
-      </c>
-      <c r="N2">
-        <v>0.25</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>dolnośląskie</t>
-        </is>
-      </c>
-      <c r="P2">
-        <v>66.99</v>
-      </c>
-      <c r="Q2">
-        <v>44.61</v>
-      </c>
-      <c r="R2">
-        <v>55.39</v>
+        <v>824109</v>
       </c>
     </row>
     <row r="3">
@@ -523,54 +483,39 @@
         </is>
       </c>
       <c r="C3">
-        <v>61.03</v>
+        <v>1580004</v>
       </c>
       <c r="D3">
-        <v>2.31</v>
+        <v>964274</v>
       </c>
       <c r="E3">
-        <v>5.88</v>
+        <v>961460</v>
       </c>
       <c r="F3">
-        <v>39.54</v>
+        <v>380190</v>
       </c>
       <c r="G3">
-        <v>15.46</v>
-      </c>
-      <c r="H3">
-        <v>0.14</v>
+        <v>322961</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>kujawsko-pomorskie</t>
+        </is>
       </c>
       <c r="I3">
-        <v>2.52</v>
+        <v>1572933</v>
       </c>
       <c r="J3">
-        <v>0.09</v>
+        <v>1027342</v>
       </c>
       <c r="K3">
-        <v>0.14</v>
+        <v>1019200</v>
       </c>
       <c r="L3">
-        <v>33.59</v>
+        <v>476728</v>
       </c>
       <c r="M3">
-        <v>0.11</v>
-      </c>
-      <c r="N3">
-        <v>0.22</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>kujawsko-pomorskie</t>
-        </is>
-      </c>
-      <c r="P3">
-        <v>65.31</v>
-      </c>
-      <c r="Q3">
-        <v>46.77</v>
-      </c>
-      <c r="R3">
-        <v>53.23</v>
+        <v>542472</v>
       </c>
     </row>
     <row r="4">
@@ -585,54 +530,39 @@
         </is>
       </c>
       <c r="C4">
-        <v>62.32</v>
+        <v>1679712</v>
       </c>
       <c r="D4">
-        <v>1.63</v>
+        <v>1046757</v>
       </c>
       <c r="E4">
-        <v>7.99</v>
+        <v>1043342</v>
       </c>
       <c r="F4">
-        <v>56.67</v>
+        <v>591234</v>
       </c>
       <c r="G4">
-        <v>10.45</v>
-      </c>
-      <c r="H4">
-        <v>0.2</v>
+        <v>201571</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>lubelskie</t>
+        </is>
       </c>
       <c r="I4">
-        <v>3.04</v>
+        <v>1671659</v>
       </c>
       <c r="J4">
-        <v>0.22</v>
+        <v>1104247</v>
       </c>
       <c r="K4">
-        <v>0.14</v>
+        <v>1094083</v>
       </c>
       <c r="L4">
-        <v>19.32</v>
+        <v>725453</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
-      </c>
-      <c r="N4">
-        <v>0.25</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>lubelskie</t>
-        </is>
-      </c>
-      <c r="P4">
-        <v>66.06</v>
-      </c>
-      <c r="Q4">
-        <v>66.31</v>
-      </c>
-      <c r="R4">
-        <v>33.69</v>
+        <v>368630</v>
       </c>
     </row>
     <row r="5">
@@ -647,54 +577,39 @@
         </is>
       </c>
       <c r="C5">
-        <v>61.41</v>
+        <v>773526</v>
       </c>
       <c r="D5">
-        <v>2.2</v>
+        <v>474991</v>
       </c>
       <c r="E5">
-        <v>6.07</v>
+        <v>473449</v>
       </c>
       <c r="F5">
-        <v>34.19</v>
+        <v>161894</v>
       </c>
       <c r="G5">
-        <v>17.87</v>
-      </c>
-      <c r="H5">
-        <v>0.14</v>
+        <v>174894</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>lubuskie</t>
+        </is>
       </c>
       <c r="I5">
-        <v>2.02</v>
+        <v>770309</v>
       </c>
       <c r="J5">
-        <v>0.09</v>
+        <v>500326</v>
       </c>
       <c r="K5">
-        <v>0.16</v>
+        <v>496438</v>
       </c>
       <c r="L5">
-        <v>36.94</v>
+        <v>199589</v>
       </c>
       <c r="M5">
-        <v>0.12</v>
-      </c>
-      <c r="N5">
-        <v>0.19</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>lubuskie</t>
-        </is>
-      </c>
-      <c r="P5">
-        <v>64.95</v>
-      </c>
-      <c r="Q5">
-        <v>40.2</v>
-      </c>
-      <c r="R5">
-        <v>59.8</v>
+        <v>296849</v>
       </c>
     </row>
     <row r="6">
@@ -709,54 +624,39 @@
         </is>
       </c>
       <c r="C6">
-        <v>65.65000000000001</v>
+        <v>1931018</v>
       </c>
       <c r="D6">
-        <v>2.3</v>
+        <v>1267726</v>
       </c>
       <c r="E6">
-        <v>6.15</v>
+        <v>1263607</v>
       </c>
       <c r="F6">
-        <v>46.63</v>
+        <v>589185</v>
       </c>
       <c r="G6">
-        <v>12.92</v>
-      </c>
-      <c r="H6">
-        <v>0.17</v>
+        <v>363209</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>łódzkie</t>
+        </is>
       </c>
       <c r="I6">
-        <v>2.47</v>
+        <v>1909980</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>1330856</v>
       </c>
       <c r="K6">
-        <v>0.14</v>
+        <v>1319077</v>
       </c>
       <c r="L6">
-        <v>28.74</v>
+        <v>718404</v>
       </c>
       <c r="M6">
-        <v>0.13</v>
-      </c>
-      <c r="N6">
-        <v>0.23</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>łódzkie</t>
-        </is>
-      </c>
-      <c r="P6">
-        <v>69.68000000000001</v>
-      </c>
-      <c r="Q6">
-        <v>54.46</v>
-      </c>
-      <c r="R6">
-        <v>45.54</v>
+        <v>600673</v>
       </c>
     </row>
     <row r="7">
@@ -771,54 +671,39 @@
         </is>
       </c>
       <c r="C7">
-        <v>67.22</v>
+        <v>2663068</v>
       </c>
       <c r="D7">
-        <v>1.92</v>
+        <v>1790052</v>
       </c>
       <c r="E7">
-        <v>7.76</v>
+        <v>1785234</v>
       </c>
       <c r="F7">
-        <v>51.11</v>
+        <v>912452</v>
       </c>
       <c r="G7">
-        <v>11.54</v>
-      </c>
-      <c r="H7">
-        <v>0.18</v>
+        <v>426950</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>małopolskie</t>
+        </is>
       </c>
       <c r="I7">
-        <v>2.94</v>
+        <v>2662442</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>1873755</v>
       </c>
       <c r="K7">
-        <v>0.12</v>
+        <v>1856755</v>
       </c>
       <c r="L7">
-        <v>23.92</v>
+        <v>1107590</v>
       </c>
       <c r="M7">
-        <v>0.13</v>
-      </c>
-      <c r="N7">
-        <v>0.28</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>małopolskie</t>
-        </is>
-      </c>
-      <c r="P7">
-        <v>70.38</v>
-      </c>
-      <c r="Q7">
-        <v>59.65</v>
-      </c>
-      <c r="R7">
-        <v>40.35</v>
+        <v>749165</v>
       </c>
     </row>
     <row r="8">
@@ -833,54 +718,39 @@
         </is>
       </c>
       <c r="C8">
-        <v>70.34</v>
+        <v>4572339</v>
       </c>
       <c r="D8">
-        <v>2.55</v>
+        <v>3216319</v>
       </c>
       <c r="E8">
-        <v>6.52</v>
+        <v>3206905</v>
       </c>
       <c r="F8">
-        <v>40.71</v>
+        <v>1305649</v>
       </c>
       <c r="G8">
-        <v>12.74</v>
-      </c>
-      <c r="H8">
-        <v>0.22</v>
+        <v>1099956</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>mazowieckie</t>
+        </is>
       </c>
       <c r="I8">
-        <v>2.27</v>
+        <v>4666787</v>
       </c>
       <c r="J8">
-        <v>0.11</v>
+        <v>3444246</v>
       </c>
       <c r="K8">
-        <v>0.15</v>
+        <v>3415293</v>
       </c>
       <c r="L8">
-        <v>34.3</v>
+        <v>1630346</v>
       </c>
       <c r="M8">
-        <v>0.19</v>
-      </c>
-      <c r="N8">
-        <v>0.24</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>mazowieckie</t>
-        </is>
-      </c>
-      <c r="P8">
-        <v>73.8</v>
-      </c>
-      <c r="Q8">
-        <v>47.74</v>
-      </c>
-      <c r="R8">
-        <v>52.26</v>
+        <v>1784947</v>
       </c>
     </row>
     <row r="9">
@@ -895,54 +765,39 @@
         </is>
       </c>
       <c r="C9">
-        <v>56.68</v>
+        <v>772390</v>
       </c>
       <c r="D9">
-        <v>1.84</v>
+        <v>437775</v>
       </c>
       <c r="E9">
-        <v>6.11</v>
+        <v>436351</v>
       </c>
       <c r="F9">
-        <v>40.46</v>
+        <v>176552</v>
       </c>
       <c r="G9">
-        <v>16.64</v>
-      </c>
-      <c r="H9">
-        <v>0.16</v>
+        <v>139125</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>opolskie</t>
+        </is>
       </c>
       <c r="I9">
-        <v>2.33</v>
+        <v>766446</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>459221</v>
       </c>
       <c r="K9">
-        <v>0.14</v>
+        <v>455330</v>
       </c>
       <c r="L9">
-        <v>31.88</v>
+        <v>215648</v>
       </c>
       <c r="M9">
-        <v>0.12</v>
-      </c>
-      <c r="N9">
-        <v>0.21</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>opolskie</t>
-        </is>
-      </c>
-      <c r="P9">
-        <v>59.92</v>
-      </c>
-      <c r="Q9">
-        <v>47.36</v>
-      </c>
-      <c r="R9">
-        <v>52.64</v>
+        <v>239682</v>
       </c>
     </row>
     <row r="10">
@@ -957,54 +812,39 @@
         </is>
       </c>
       <c r="C10">
-        <v>63.37</v>
+        <v>1684688</v>
       </c>
       <c r="D10">
-        <v>1.39</v>
+        <v>1067584</v>
       </c>
       <c r="E10">
-        <v>8.960000000000001</v>
+        <v>1064559</v>
       </c>
       <c r="F10">
-        <v>60.69</v>
+        <v>646103</v>
       </c>
       <c r="G10">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.18</v>
+        <v>172789</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>podkarpackie</t>
+        </is>
       </c>
       <c r="I10">
-        <v>2.56</v>
+        <v>1680845</v>
       </c>
       <c r="J10">
-        <v>0.11</v>
+        <v>1117510</v>
       </c>
       <c r="K10">
-        <v>0.11</v>
+        <v>1107778</v>
       </c>
       <c r="L10">
-        <v>16.23</v>
+        <v>785645</v>
       </c>
       <c r="M10">
-        <v>0.08</v>
-      </c>
-      <c r="N10">
-        <v>0.22</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>podkarpackie</t>
-        </is>
-      </c>
-      <c r="P10">
-        <v>66.49</v>
-      </c>
-      <c r="Q10">
-        <v>70.92</v>
-      </c>
-      <c r="R10">
-        <v>29.08</v>
+        <v>322133</v>
       </c>
     </row>
     <row r="11">
@@ -1019,54 +859,39 @@
         </is>
       </c>
       <c r="C11">
-        <v>60.35</v>
+        <v>920327</v>
       </c>
       <c r="D11">
-        <v>1.58</v>
+        <v>555430</v>
       </c>
       <c r="E11">
-        <v>7.73</v>
+        <v>553717</v>
       </c>
       <c r="F11">
-        <v>50.59</v>
+        <v>280113</v>
       </c>
       <c r="G11">
-        <v>16.63</v>
-      </c>
-      <c r="H11">
-        <v>0.18</v>
+        <v>114076</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>podlaskie</t>
+        </is>
       </c>
       <c r="I11">
-        <v>2.11</v>
+        <v>919765</v>
       </c>
       <c r="J11">
-        <v>0.11</v>
+        <v>591639</v>
       </c>
       <c r="K11">
-        <v>0.13</v>
+        <v>586110</v>
       </c>
       <c r="L11">
-        <v>20.6</v>
+        <v>352489</v>
       </c>
       <c r="M11">
-        <v>0.09</v>
-      </c>
-      <c r="N11">
-        <v>0.23</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>podlaskie</t>
-        </is>
-      </c>
-      <c r="P11">
-        <v>64.33</v>
-      </c>
-      <c r="Q11">
-        <v>60.14</v>
-      </c>
-      <c r="R11">
-        <v>39.86</v>
+        <v>233621</v>
       </c>
     </row>
     <row r="12">
@@ -1081,54 +906,39 @@
         </is>
       </c>
       <c r="C12">
-        <v>65.55</v>
+        <v>1796422</v>
       </c>
       <c r="D12">
-        <v>2.57</v>
+        <v>1177626</v>
       </c>
       <c r="E12">
-        <v>6.22</v>
+        <v>1174192</v>
       </c>
       <c r="F12">
-        <v>33.82</v>
+        <v>397169</v>
       </c>
       <c r="G12">
-        <v>16.13</v>
-      </c>
-      <c r="H12">
-        <v>0.14</v>
+        <v>453006</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>pomorskie</t>
+        </is>
       </c>
       <c r="I12">
-        <v>1.91</v>
+        <v>1839064</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>1288134</v>
       </c>
       <c r="K12">
-        <v>0.15</v>
+        <v>1277279</v>
       </c>
       <c r="L12">
-        <v>38.58</v>
+        <v>512916</v>
       </c>
       <c r="M12">
-        <v>0.14</v>
-      </c>
-      <c r="N12">
-        <v>0.23</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>pomorskie</t>
-        </is>
-      </c>
-      <c r="P12">
-        <v>70.04000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>40.16</v>
-      </c>
-      <c r="R12">
-        <v>59.84</v>
+        <v>764363</v>
       </c>
     </row>
     <row r="13">
@@ -1143,54 +953,39 @@
         </is>
       </c>
       <c r="C13">
-        <v>64.31999999999999</v>
+        <v>3455664</v>
       </c>
       <c r="D13">
-        <v>2.29</v>
+        <v>2222590</v>
       </c>
       <c r="E13">
-        <v>7.08</v>
+        <v>2216198</v>
       </c>
       <c r="F13">
-        <v>41.22</v>
+        <v>913421</v>
       </c>
       <c r="G13">
-        <v>15.39</v>
-      </c>
-      <c r="H13">
-        <v>0.16</v>
+        <v>693193</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>śląskie</t>
+        </is>
       </c>
       <c r="I13">
-        <v>1.92</v>
+        <v>3417778</v>
       </c>
       <c r="J13">
-        <v>0.11</v>
+        <v>2286894</v>
       </c>
       <c r="K13">
-        <v>0.16</v>
+        <v>2266127</v>
       </c>
       <c r="L13">
-        <v>31.28</v>
+        <v>1110233</v>
       </c>
       <c r="M13">
-        <v>0.14</v>
-      </c>
-      <c r="N13">
-        <v>0.24</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>śląskie</t>
-        </is>
-      </c>
-      <c r="P13">
-        <v>66.91</v>
-      </c>
-      <c r="Q13">
-        <v>48.99</v>
-      </c>
-      <c r="R13">
-        <v>51.01</v>
+        <v>1155894</v>
       </c>
     </row>
     <row r="14">
@@ -1205,54 +1000,39 @@
         </is>
       </c>
       <c r="C14">
-        <v>62.09</v>
+        <v>991408</v>
       </c>
       <c r="D14">
-        <v>1.75</v>
+        <v>615554</v>
       </c>
       <c r="E14">
-        <v>6.93</v>
+        <v>613640</v>
       </c>
       <c r="F14">
-        <v>56.02</v>
+        <v>343752</v>
       </c>
       <c r="G14">
-        <v>10.17</v>
-      </c>
-      <c r="H14">
-        <v>0.17</v>
+        <v>130670</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>świętokrzyskie</t>
+        </is>
       </c>
       <c r="I14">
-        <v>3.18</v>
+        <v>989213</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>656542</v>
       </c>
       <c r="K14">
-        <v>0.11</v>
+        <v>651115</v>
       </c>
       <c r="L14">
-        <v>21.29</v>
+        <v>419367</v>
       </c>
       <c r="M14">
-        <v>0.09</v>
-      </c>
-      <c r="N14">
-        <v>0.2</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>świętokrzyskie</t>
-        </is>
-      </c>
-      <c r="P14">
-        <v>66.37000000000001</v>
-      </c>
-      <c r="Q14">
-        <v>64.41</v>
-      </c>
-      <c r="R14">
-        <v>35.59</v>
+        <v>231748</v>
       </c>
     </row>
     <row r="15">
@@ -1267,54 +1047,39 @@
         </is>
       </c>
       <c r="C15">
-        <v>57.13</v>
+        <v>1112335</v>
       </c>
       <c r="D15">
-        <v>2.21</v>
+        <v>635443</v>
       </c>
       <c r="E15">
-        <v>6.69</v>
+        <v>633192</v>
       </c>
       <c r="F15">
-        <v>40.1</v>
+        <v>253931</v>
       </c>
       <c r="G15">
-        <v>14.78</v>
-      </c>
-      <c r="H15">
-        <v>0.17</v>
+        <v>208922</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>warmińsko-mazurskie</t>
+        </is>
       </c>
       <c r="I15">
-        <v>2.48</v>
+        <v>1128441</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>701201</v>
       </c>
       <c r="K15">
-        <v>0.15</v>
+        <v>695459</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>325723</v>
       </c>
       <c r="M15">
-        <v>0.12</v>
-      </c>
-      <c r="N15">
-        <v>0.2</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>warmińsko-mazurskie</t>
-        </is>
-      </c>
-      <c r="P15">
-        <v>62.14</v>
-      </c>
-      <c r="Q15">
-        <v>46.84</v>
-      </c>
-      <c r="R15">
-        <v>53.16</v>
+        <v>369736</v>
       </c>
     </row>
     <row r="16">
@@ -1329,54 +1094,39 @@
         </is>
       </c>
       <c r="C16">
-        <v>65.49</v>
+        <v>2696143</v>
       </c>
       <c r="D16">
-        <v>2.34</v>
+        <v>1765810</v>
       </c>
       <c r="E16">
-        <v>6.04</v>
+        <v>1761067</v>
       </c>
       <c r="F16">
-        <v>37.85</v>
+        <v>666539</v>
       </c>
       <c r="G16">
-        <v>16.64</v>
-      </c>
-      <c r="H16">
-        <v>0.14</v>
+        <v>595803</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>wielkopolskie</t>
+        </is>
       </c>
       <c r="I16">
-        <v>2.51</v>
+        <v>2681058</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>1856619</v>
       </c>
       <c r="K16">
-        <v>0.14</v>
+        <v>1840718</v>
       </c>
       <c r="L16">
-        <v>33.83</v>
+        <v>829590</v>
       </c>
       <c r="M16">
-        <v>0.18</v>
-      </c>
-      <c r="N16">
-        <v>0.22</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>wielkopolskie</t>
-        </is>
-      </c>
-      <c r="P16">
-        <v>69.25</v>
-      </c>
-      <c r="Q16">
-        <v>45.07</v>
-      </c>
-      <c r="R16">
-        <v>54.93</v>
+        <v>1011128</v>
       </c>
     </row>
     <row r="17">
@@ -1391,54 +1141,39 @@
         </is>
       </c>
       <c r="C17">
-        <v>61.69</v>
+        <v>1320966</v>
       </c>
       <c r="D17">
-        <v>2.67</v>
+        <v>814876</v>
       </c>
       <c r="E17">
-        <v>5.59</v>
+        <v>812153</v>
       </c>
       <c r="F17">
-        <v>35.38</v>
+        <v>287328</v>
       </c>
       <c r="G17">
-        <v>15.67</v>
-      </c>
-      <c r="H17">
-        <v>0.15</v>
+        <v>307858</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>zachodniopomorskie</t>
+        </is>
       </c>
       <c r="I17">
-        <v>2.06</v>
+        <v>1351364</v>
       </c>
       <c r="J17">
-        <v>0.09</v>
+        <v>897210</v>
       </c>
       <c r="K17">
-        <v>0.16</v>
+        <v>890209</v>
       </c>
       <c r="L17">
-        <v>37.91</v>
+        <v>367096</v>
       </c>
       <c r="M17">
-        <v>0.13</v>
-      </c>
-      <c r="N17">
-        <v>0.2</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>zachodniopomorskie</t>
-        </is>
-      </c>
-      <c r="P17">
-        <v>66.39</v>
-      </c>
-      <c r="Q17">
-        <v>41.24</v>
-      </c>
-      <c r="R17">
-        <v>58.76</v>
+        <v>523113</v>
       </c>
     </row>
   </sheetData>
